--- a/ThesisData/output/stoxx_news_announcements.xlsx
+++ b/ThesisData/output/stoxx_news_announcements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="389">
   <si>
     <t>Date Time</t>
   </si>
@@ -79,6 +79,9 @@
     <t>272)</t>
   </si>
   <si>
+    <t>314)</t>
+  </si>
+  <si>
     <t>103)</t>
   </si>
   <si>
@@ -88,12 +91,12 @@
     <t>134)</t>
   </si>
   <si>
+    <t>138)</t>
+  </si>
+  <si>
     <t>142)</t>
   </si>
   <si>
-    <t>138)</t>
-  </si>
-  <si>
     <t>463)</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>943)</t>
   </si>
   <si>
+    <t>980)</t>
+  </si>
+  <si>
     <t>344)</t>
   </si>
   <si>
@@ -166,12 +172,12 @@
     <t>404)</t>
   </si>
   <si>
+    <t>437)</t>
+  </si>
+  <si>
     <t>435)</t>
   </si>
   <si>
-    <t>437)</t>
-  </si>
-  <si>
     <t>1263)</t>
   </si>
   <si>
@@ -199,12 +205,15 @@
     <t>1490)</t>
   </si>
   <si>
+    <t>1576)</t>
+  </si>
+  <si>
+    <t>574)</t>
+  </si>
+  <si>
     <t>572)</t>
   </si>
   <si>
-    <t>574)</t>
-  </si>
-  <si>
     <t>1629)</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t>2252)</t>
   </si>
   <si>
+    <t>2259)</t>
+  </si>
+  <si>
     <t>832)</t>
   </si>
   <si>
@@ -319,12 +331,12 @@
     <t>1004)</t>
   </si>
   <si>
+    <t>1012)</t>
+  </si>
+  <si>
     <t>1006)</t>
   </si>
   <si>
-    <t>1012)</t>
-  </si>
-  <si>
     <t>2767)</t>
   </si>
   <si>
@@ -334,18 +346,21 @@
     <t>1036)</t>
   </si>
   <si>
+    <t>2839)</t>
+  </si>
+  <si>
     <t>1045)</t>
   </si>
   <si>
     <t>1059)</t>
   </si>
   <si>
+    <t>1078)</t>
+  </si>
+  <si>
     <t>1080)</t>
   </si>
   <si>
-    <t>1078)</t>
-  </si>
-  <si>
     <t>2976)</t>
   </si>
   <si>
@@ -379,6 +394,9 @@
     <t>3289)</t>
   </si>
   <si>
+    <t>3339)</t>
+  </si>
+  <si>
     <t>1219)</t>
   </si>
   <si>
@@ -421,6 +439,9 @@
     <t>1361)</t>
   </si>
   <si>
+    <t>3761)</t>
+  </si>
+  <si>
     <t>1384)</t>
   </si>
   <si>
@@ -433,12 +454,12 @@
     <t>3823)</t>
   </si>
   <si>
+    <t>1444)</t>
+  </si>
+  <si>
     <t>1440)</t>
   </si>
   <si>
-    <t>1444)</t>
-  </si>
-  <si>
     <t>3959)</t>
   </si>
   <si>
@@ -475,12 +496,12 @@
     <t>4239)</t>
   </si>
   <si>
+    <t>1574)</t>
+  </si>
+  <si>
     <t>1570)</t>
   </si>
   <si>
-    <t>1574)</t>
-  </si>
-  <si>
     <t>4383)</t>
   </si>
   <si>
@@ -496,6 +517,9 @@
     <t>4467)</t>
   </si>
   <si>
+    <t>4499)</t>
+  </si>
+  <si>
     <t>1645)</t>
   </si>
   <si>
@@ -547,6 +571,9 @@
     <t>CPI YoY</t>
   </si>
   <si>
+    <t>ECB Main Refinancing Rate</t>
+  </si>
+  <si>
     <t>FOMC Rate Decision (Upper Bound)</t>
   </si>
   <si>
@@ -1142,6 +1169,9 @@
   </si>
   <si>
     <t>ECCPEMUY Index</t>
+  </si>
+  <si>
+    <t>EURR002W Index</t>
   </si>
   <si>
     <t>FDTR Index</t>
@@ -1512,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,10 +1594,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>63.1</v>
@@ -1585,7 +1615,7 @@
         <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1599,28 +1629,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2">
         <v>44738</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="I3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J3">
         <v>98.3871</v>
       </c>
       <c r="K3" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1634,10 +1664,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F4">
         <v>60.9</v>
@@ -1655,7 +1685,7 @@
         <v>95.1613</v>
       </c>
       <c r="K4" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1669,28 +1699,28 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="J5">
         <v>99.1935</v>
       </c>
       <c r="K5" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1704,28 +1734,28 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2">
         <v>44745</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="J6">
         <v>98.3871</v>
       </c>
       <c r="K6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1739,10 +1769,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F7">
         <v>0.005</v>
@@ -1760,7 +1790,7 @@
         <v>96.77419999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1774,28 +1804,28 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2">
         <v>44752</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I8" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="J8">
         <v>98.3871</v>
       </c>
       <c r="K8" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1809,10 +1839,10 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F9">
         <v>0.019</v>
@@ -1830,117 +1860,117 @@
         <v>94.87179999999999</v>
       </c>
       <c r="K9" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>44399.60416666666</v>
+        <v>44399.57291666666</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E10" s="2">
-        <v>44759</v>
-      </c>
-      <c r="F10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10" t="s">
-        <v>286</v>
+        <v>44764</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="J10">
-        <v>98.3871</v>
+        <v>97.4359</v>
       </c>
       <c r="K10" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>44400.41666666666</v>
+        <v>44399.60416666666</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11">
-        <v>62.5</v>
+        <v>180</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44759</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11">
-        <v>63.4</v>
+        <v>296</v>
+      </c>
+      <c r="H11" t="s">
+        <v>295</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="J11">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K11" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
-        <v>44405.83333333334</v>
+        <v>44400.41666666666</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44770</v>
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
       </c>
       <c r="F12">
-        <v>0.0025</v>
-      </c>
-      <c r="G12">
-        <v>0.0025</v>
+        <v>62.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>297</v>
       </c>
       <c r="H12">
-        <v>0.0025</v>
+        <v>63.4</v>
       </c>
       <c r="I12" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J12">
-        <v>97.5806</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
-        <v>44406.60416666666</v>
+        <v>44405.83333333334</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1949,28 +1979,28 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2">
-        <v>44766</v>
-      </c>
-      <c r="F13" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" t="s">
-        <v>287</v>
+        <v>44770</v>
+      </c>
+      <c r="F13">
+        <v>0.0025</v>
+      </c>
+      <c r="G13">
+        <v>0.0025</v>
+      </c>
+      <c r="H13">
+        <v>0.0025</v>
       </c>
       <c r="I13" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="J13">
-        <v>98.3871</v>
+        <v>97.5806</v>
       </c>
       <c r="K13" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1984,10 +2014,10 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F14">
         <v>0.08400000000000001</v>
@@ -2005,47 +2035,47 @@
         <v>95.96769999999999</v>
       </c>
       <c r="K14" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>44407.45833333334</v>
+        <v>44406.60416666666</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15">
-        <v>0.015</v>
-      </c>
-      <c r="G15">
-        <v>0.02</v>
-      </c>
-      <c r="H15">
-        <v>-0.003</v>
+        <v>180</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44766</v>
+      </c>
+      <c r="F15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" t="s">
+        <v>296</v>
       </c>
       <c r="I15" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="J15">
-        <v>92.3077</v>
+        <v>98.3871</v>
       </c>
       <c r="K15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>44410.41666666666</v>
+        <v>44407.45833333334</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -2054,68 +2084,68 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F16">
-        <v>62.6</v>
+        <v>0.015</v>
       </c>
       <c r="G16">
-        <v>62.8</v>
+        <v>0.02</v>
       </c>
       <c r="H16">
-        <v>62.6</v>
-      </c>
-      <c r="I16">
-        <v>62.8</v>
+        <v>-0.003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>297</v>
       </c>
       <c r="J16">
-        <v>90</v>
+        <v>92.3077</v>
       </c>
       <c r="K16" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2">
-        <v>44410.66666666666</v>
+        <v>44410.41666666666</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F17">
-        <v>61</v>
+        <v>62.6</v>
       </c>
       <c r="G17">
-        <v>59.5</v>
+        <v>62.8</v>
       </c>
       <c r="H17">
-        <v>60.6</v>
+        <v>62.6</v>
       </c>
       <c r="I17">
-        <v>60.9</v>
+        <v>62.8</v>
       </c>
       <c r="J17">
-        <v>95.1613</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2">
-        <v>44413.60416666666</v>
+        <v>44410.66666666666</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -2124,33 +2154,33 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44773</v>
-      </c>
-      <c r="F18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" t="s">
-        <v>239</v>
-      </c>
-      <c r="H18" t="s">
-        <v>289</v>
-      </c>
-      <c r="I18" t="s">
-        <v>328</v>
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <v>59.5</v>
+      </c>
+      <c r="H18">
+        <v>60.6</v>
+      </c>
+      <c r="I18">
+        <v>60.9</v>
       </c>
       <c r="J18">
-        <v>98.3871</v>
+        <v>95.1613</v>
       </c>
       <c r="K18" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>44414.60416666666</v>
+        <v>44413.60416666666</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -2159,33 +2189,33 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44773</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="H19" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J19">
-        <v>99.1935</v>
+        <v>98.3871</v>
       </c>
       <c r="K19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
-        <v>44419.60416666666</v>
+        <v>44414.60416666666</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -2194,33 +2224,33 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20">
-        <v>0.005</v>
-      </c>
-      <c r="G20">
-        <v>0.005</v>
-      </c>
-      <c r="H20">
-        <v>0.008999999999999999</v>
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" t="s">
+        <v>293</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="J20">
-        <v>96.77419999999999</v>
+        <v>99.1935</v>
       </c>
       <c r="K20" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
-        <v>44420.60416666666</v>
+        <v>44419.60416666666</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -2229,68 +2259,68 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44780</v>
-      </c>
-      <c r="F21" t="s">
-        <v>242</v>
-      </c>
-      <c r="G21" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" t="s">
-        <v>239</v>
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21">
+        <v>0.005</v>
+      </c>
+      <c r="G21">
+        <v>0.005</v>
+      </c>
+      <c r="H21">
+        <v>0.008999999999999999</v>
       </c>
       <c r="I21" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="J21">
-        <v>98.3871</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K21" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
-        <v>44425.45833333334</v>
+        <v>44420.60416666666</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22">
-        <v>0.02</v>
-      </c>
-      <c r="G22">
-        <v>0.02</v>
-      </c>
-      <c r="H22">
-        <v>0.02</v>
-      </c>
-      <c r="I22">
-        <v>0.022</v>
+        <v>180</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44780</v>
+      </c>
+      <c r="F22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H22" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" t="s">
+        <v>345</v>
       </c>
       <c r="J22">
-        <v>92.3077</v>
+        <v>98.3871</v>
       </c>
       <c r="K22" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2">
-        <v>44426.45833333334</v>
+        <v>44425.45833333334</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -2299,133 +2329,133 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F23">
+        <v>0.02</v>
+      </c>
+      <c r="G23">
+        <v>0.02</v>
+      </c>
+      <c r="H23">
+        <v>0.02</v>
+      </c>
+      <c r="I23">
         <v>0.022</v>
       </c>
-      <c r="G23">
-        <v>0.022</v>
-      </c>
-      <c r="H23">
-        <v>0.022</v>
-      </c>
-      <c r="I23">
-        <v>0.019</v>
-      </c>
       <c r="J23">
-        <v>94.87179999999999</v>
+        <v>92.3077</v>
       </c>
       <c r="K23" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2">
-        <v>44427.60416666666</v>
+        <v>44426.45833333334</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="2">
-        <v>44787</v>
-      </c>
-      <c r="F24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" t="s">
-        <v>250</v>
-      </c>
-      <c r="H24" t="s">
-        <v>242</v>
-      </c>
-      <c r="I24" t="s">
-        <v>337</v>
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24">
+        <v>0.022</v>
+      </c>
+      <c r="G24">
+        <v>0.022</v>
+      </c>
+      <c r="H24">
+        <v>0.022</v>
+      </c>
+      <c r="I24">
+        <v>0.019</v>
       </c>
       <c r="J24">
-        <v>98.3871</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K24" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2">
-        <v>44431.41666666666</v>
+        <v>44427.60416666666</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25">
-        <v>62</v>
+        <v>180</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44787</v>
+      </c>
+      <c r="F25" t="s">
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
-      </c>
-      <c r="H25">
-        <v>62.8</v>
+        <v>259</v>
+      </c>
+      <c r="H25" t="s">
+        <v>251</v>
       </c>
       <c r="I25" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="J25">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K25" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2">
-        <v>44434.60416666666</v>
+        <v>44431.41666666666</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F26">
-        <v>0.067</v>
-      </c>
-      <c r="G26">
-        <v>0.066</v>
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>297</v>
       </c>
       <c r="H26">
-        <v>0.065</v>
+        <v>62.8</v>
       </c>
       <c r="I26" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J26">
-        <v>95.96769999999999</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2436,106 +2466,106 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="2">
-        <v>44794</v>
-      </c>
-      <c r="F27" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" t="s">
-        <v>291</v>
-      </c>
-      <c r="H27" t="s">
-        <v>250</v>
+        <v>187</v>
+      </c>
+      <c r="E27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27">
+        <v>0.067</v>
+      </c>
+      <c r="G27">
+        <v>0.066</v>
+      </c>
+      <c r="H27">
+        <v>0.065</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="J27">
-        <v>98.3871</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K27" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
-        <v>44440.41666666666</v>
+        <v>44434.60416666666</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28">
-        <v>61.5</v>
-      </c>
-      <c r="G28">
-        <v>61.4</v>
-      </c>
-      <c r="H28">
-        <v>62.8</v>
-      </c>
-      <c r="I28">
-        <v>61.4</v>
+        <v>180</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44794</v>
+      </c>
+      <c r="F28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" t="s">
+        <v>259</v>
+      </c>
+      <c r="I28" t="s">
+        <v>341</v>
       </c>
       <c r="J28">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K28" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2">
-        <v>44440.66666666666</v>
+        <v>44440.41666666666</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F29">
-        <v>58.5</v>
+        <v>61.5</v>
       </c>
       <c r="G29">
-        <v>59.9</v>
+        <v>61.4</v>
       </c>
       <c r="H29">
-        <v>59.5</v>
+        <v>62.8</v>
       </c>
       <c r="I29">
-        <v>59.9</v>
+        <v>61.4</v>
       </c>
       <c r="J29">
-        <v>95.1613</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2">
-        <v>44441.60416666666</v>
+        <v>44440.66666666666</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -2544,33 +2574,33 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="2">
-        <v>44801</v>
-      </c>
-      <c r="F30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" t="s">
-        <v>292</v>
-      </c>
-      <c r="H30" t="s">
-        <v>291</v>
-      </c>
-      <c r="I30" t="s">
-        <v>338</v>
+        <v>181</v>
+      </c>
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30">
+        <v>58.5</v>
+      </c>
+      <c r="G30">
+        <v>59.9</v>
+      </c>
+      <c r="H30">
+        <v>59.5</v>
+      </c>
+      <c r="I30">
+        <v>59.9</v>
       </c>
       <c r="J30">
-        <v>98.3871</v>
+        <v>95.1613</v>
       </c>
       <c r="K30" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2">
-        <v>44442.60416666666</v>
+        <v>44441.60416666666</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2579,138 +2609,138 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44801</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="H31" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I31" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J31">
-        <v>99.1935</v>
+        <v>98.3871</v>
       </c>
       <c r="K31" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2">
-        <v>44446.45833333334</v>
+        <v>44442.60416666666</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32">
-        <v>0.02</v>
-      </c>
-      <c r="G32">
-        <v>0.022</v>
-      </c>
-      <c r="H32">
-        <v>0.02</v>
+        <v>199</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" t="s">
+        <v>299</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="J32">
-        <v>92.3077</v>
+        <v>99.1935</v>
       </c>
       <c r="K32" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2">
-        <v>44448.60416666666</v>
+        <v>44446.45833333334</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="2">
-        <v>44808</v>
-      </c>
-      <c r="F33" t="s">
-        <v>246</v>
-      </c>
-      <c r="G33" t="s">
-        <v>293</v>
-      </c>
-      <c r="H33" t="s">
-        <v>292</v>
+        <v>188</v>
+      </c>
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>0.02</v>
+      </c>
+      <c r="G33">
+        <v>0.022</v>
+      </c>
+      <c r="H33">
+        <v>0.02</v>
       </c>
       <c r="I33" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="J33">
-        <v>98.3871</v>
+        <v>92.3077</v>
       </c>
       <c r="K33" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2">
-        <v>44453.60416666666</v>
+        <v>44448.57291666666</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44813</v>
       </c>
       <c r="F34">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J34">
-        <v>96.77419999999999</v>
+        <v>97.4359</v>
       </c>
       <c r="K34" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2">
-        <v>44455.60416666666</v>
+        <v>44448.60416666666</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2719,68 +2749,68 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E35" s="2">
-        <v>44815</v>
+        <v>44808</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H35" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="I35" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="J35">
         <v>98.3871</v>
       </c>
       <c r="K35" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2">
-        <v>44456.45833333334</v>
+        <v>44453.60416666666</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F36">
-        <v>0.03</v>
+        <v>0.004</v>
       </c>
       <c r="G36">
-        <v>0.03</v>
+        <v>0.003</v>
       </c>
       <c r="H36">
-        <v>0.03</v>
-      </c>
-      <c r="I36">
-        <v>0.022</v>
+        <v>0.005</v>
+      </c>
+      <c r="I36" t="s">
+        <v>297</v>
       </c>
       <c r="J36">
-        <v>94.87179999999999</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K36" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2">
-        <v>44461.83333333334</v>
+        <v>44455.60416666666</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2789,33 +2819,33 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E37" s="2">
-        <v>44826</v>
-      </c>
-      <c r="F37">
-        <v>0.0025</v>
-      </c>
-      <c r="G37">
-        <v>0.0025</v>
-      </c>
-      <c r="H37">
-        <v>0.0025</v>
+        <v>44815</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H37" t="s">
+        <v>302</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="J37">
-        <v>97.5806</v>
+        <v>98.3871</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2">
-        <v>44462.41666666666</v>
+        <v>44456.45833333334</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2824,33 +2854,33 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F38">
-        <v>60.3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>288</v>
+        <v>0.03</v>
+      </c>
+      <c r="G38">
+        <v>0.03</v>
       </c>
       <c r="H38">
-        <v>61.4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>288</v>
+        <v>0.03</v>
+      </c>
+      <c r="I38">
+        <v>0.022</v>
       </c>
       <c r="J38">
-        <v>90</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K38" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2">
-        <v>44462.60416666666</v>
+        <v>44461.83333333334</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -2859,68 +2889,68 @@
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E39" s="2">
-        <v>44822</v>
-      </c>
-      <c r="F39" t="s">
-        <v>248</v>
-      </c>
-      <c r="G39" t="s">
-        <v>295</v>
-      </c>
-      <c r="H39" t="s">
-        <v>294</v>
+        <v>44826</v>
+      </c>
+      <c r="F39">
+        <v>0.0025</v>
+      </c>
+      <c r="G39">
+        <v>0.0025</v>
+      </c>
+      <c r="H39">
+        <v>0.0025</v>
       </c>
       <c r="I39" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="J39">
-        <v>98.3871</v>
+        <v>97.5806</v>
       </c>
       <c r="K39" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2">
-        <v>44469.60416666666</v>
+        <v>44462.41666666666</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40" s="2">
-        <v>44829</v>
-      </c>
-      <c r="F40" t="s">
-        <v>249</v>
+        <v>179</v>
+      </c>
+      <c r="E40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40">
+        <v>60.3</v>
       </c>
       <c r="G40" t="s">
-        <v>296</v>
-      </c>
-      <c r="H40" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="H40">
+        <v>61.4</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="J40">
-        <v>98.3871</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2">
-        <v>44469.60416666666</v>
+        <v>44462.60416666666</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -2929,68 +2959,68 @@
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41">
-        <v>0.066</v>
-      </c>
-      <c r="G41">
-        <v>0.067</v>
-      </c>
-      <c r="H41">
-        <v>0.066</v>
+        <v>180</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44822</v>
+      </c>
+      <c r="F41" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" t="s">
+        <v>304</v>
+      </c>
+      <c r="H41" t="s">
+        <v>303</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="J41">
-        <v>95.96769999999999</v>
+        <v>98.3871</v>
       </c>
       <c r="K41" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2">
-        <v>44470.41666666666</v>
+        <v>44469.60416666666</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F42">
-        <v>58.7</v>
+        <v>0.066</v>
       </c>
       <c r="G42">
-        <v>58.6</v>
+        <v>0.067</v>
       </c>
       <c r="H42">
-        <v>61.4</v>
-      </c>
-      <c r="I42">
-        <v>58.6</v>
+        <v>0.066</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
       </c>
       <c r="J42">
-        <v>90</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K42" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2">
-        <v>44470.66666666666</v>
+        <v>44469.60416666666</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -2999,68 +3029,68 @@
         <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43">
-        <v>59.5</v>
-      </c>
-      <c r="G43">
-        <v>61.1</v>
-      </c>
-      <c r="H43">
-        <v>59.9</v>
-      </c>
-      <c r="I43">
-        <v>59.7</v>
+        <v>180</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44829</v>
+      </c>
+      <c r="F43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" t="s">
+        <v>305</v>
+      </c>
+      <c r="H43" t="s">
+        <v>304</v>
+      </c>
+      <c r="I43" t="s">
+        <v>287</v>
       </c>
       <c r="J43">
-        <v>95.1613</v>
+        <v>98.3871</v>
       </c>
       <c r="K43" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2">
-        <v>44476.60416666666</v>
+        <v>44470.41666666666</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="2">
-        <v>44836</v>
-      </c>
-      <c r="F44" t="s">
-        <v>250</v>
-      </c>
-      <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" t="s">
-        <v>343</v>
+        <v>179</v>
+      </c>
+      <c r="E44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44">
+        <v>58.7</v>
+      </c>
+      <c r="G44">
+        <v>58.6</v>
+      </c>
+      <c r="H44">
+        <v>61.4</v>
+      </c>
+      <c r="I44">
+        <v>58.6</v>
       </c>
       <c r="J44">
-        <v>98.3871</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2">
-        <v>44477.60416666666</v>
+        <v>44470.66666666666</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -3069,33 +3099,33 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G45" t="s">
-        <v>298</v>
-      </c>
-      <c r="H45" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" t="s">
-        <v>344</v>
+        <v>204</v>
+      </c>
+      <c r="F45">
+        <v>59.5</v>
+      </c>
+      <c r="G45">
+        <v>61.1</v>
+      </c>
+      <c r="H45">
+        <v>59.9</v>
+      </c>
+      <c r="I45">
+        <v>59.7</v>
       </c>
       <c r="J45">
-        <v>99.1935</v>
+        <v>95.1613</v>
       </c>
       <c r="K45" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2">
-        <v>44482.60416666666</v>
+        <v>44476.60416666666</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -3104,33 +3134,33 @@
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46">
-        <v>0.003</v>
-      </c>
-      <c r="G46">
-        <v>0.004</v>
-      </c>
-      <c r="H46">
-        <v>0.003</v>
+        <v>180</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F46" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" t="s">
+        <v>306</v>
+      </c>
+      <c r="H46" t="s">
+        <v>305</v>
       </c>
       <c r="I46" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="J46">
-        <v>96.77419999999999</v>
+        <v>98.3871</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2">
-        <v>44483.60416666666</v>
+        <v>44477.60416666666</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -3139,68 +3169,68 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="2">
-        <v>44843</v>
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
+        <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="G47" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H47" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="I47" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="J47">
-        <v>98.3871</v>
+        <v>99.1935</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2">
-        <v>44489.45833333334</v>
+        <v>44482.60416666666</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F48">
-        <v>0.034</v>
+        <v>0.003</v>
       </c>
       <c r="G48">
-        <v>0.034</v>
+        <v>0.004</v>
       </c>
       <c r="H48">
-        <v>0.034</v>
-      </c>
-      <c r="I48">
-        <v>0.03</v>
+        <v>0.003</v>
+      </c>
+      <c r="I48" t="s">
+        <v>297</v>
       </c>
       <c r="J48">
-        <v>94.87179999999999</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K48" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="2">
-        <v>44490.60416666666</v>
+        <v>44483.60416666666</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -3209,33 +3239,33 @@
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E49" s="2">
-        <v>44850</v>
+        <v>44843</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G49" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H49" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I49" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="J49">
         <v>98.3871</v>
       </c>
       <c r="K49" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2">
-        <v>44491.41666666666</v>
+        <v>44489.45833333334</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3244,33 +3274,33 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F50">
-        <v>57.1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>288</v>
+        <v>0.034</v>
+      </c>
+      <c r="G50">
+        <v>0.034</v>
       </c>
       <c r="H50">
-        <v>58.6</v>
-      </c>
-      <c r="I50" t="s">
-        <v>288</v>
+        <v>0.034</v>
+      </c>
+      <c r="I50">
+        <v>0.03</v>
       </c>
       <c r="J50">
-        <v>90</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2">
-        <v>44497.60416666666</v>
+        <v>44490.60416666666</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -3279,68 +3309,68 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E51" s="2">
-        <v>44857</v>
+        <v>44850</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H51" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I51" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="J51">
         <v>98.3871</v>
       </c>
       <c r="K51" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2">
-        <v>44497.60416666666</v>
+        <v>44491.41666666666</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F52">
-        <v>0.026</v>
-      </c>
-      <c r="G52">
-        <v>0.02</v>
+        <v>57.1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>297</v>
       </c>
       <c r="H52">
-        <v>0.067</v>
+        <v>58.6</v>
       </c>
       <c r="I52" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J52">
-        <v>95.96769999999999</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2">
-        <v>44498.45833333334</v>
+        <v>44497.57291666666</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -3349,33 +3379,33 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44862</v>
       </c>
       <c r="F53">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0.022</v>
-      </c>
-      <c r="I53">
-        <v>0.021</v>
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>297</v>
       </c>
       <c r="J53">
-        <v>92.3077</v>
+        <v>97.4359</v>
       </c>
       <c r="K53" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2">
-        <v>44501.625</v>
+        <v>44497.60416666666</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -3384,103 +3414,103 @@
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F54">
-        <v>60.5</v>
+        <v>0.026</v>
       </c>
       <c r="G54">
-        <v>60.8</v>
+        <v>0.02</v>
       </c>
       <c r="H54">
-        <v>61.1</v>
-      </c>
-      <c r="I54">
-        <v>60.5</v>
+        <v>0.067</v>
+      </c>
+      <c r="I54" t="s">
+        <v>297</v>
       </c>
       <c r="J54">
-        <v>95.1613</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K54" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2">
-        <v>44502.41666666666</v>
+        <v>44497.60416666666</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55">
-        <v>58.5</v>
-      </c>
-      <c r="G55">
-        <v>58.3</v>
-      </c>
-      <c r="H55">
-        <v>58.6</v>
-      </c>
-      <c r="I55">
-        <v>58.3</v>
+        <v>180</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44857</v>
+      </c>
+      <c r="F55" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" t="s">
+        <v>309</v>
+      </c>
+      <c r="I55" t="s">
+        <v>302</v>
       </c>
       <c r="J55">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K55" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2">
-        <v>44503.79166666666</v>
+        <v>44498.45833333334</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
-      </c>
-      <c r="E56" s="2">
-        <v>44868</v>
+        <v>188</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
       </c>
       <c r="F56">
-        <v>0.0025</v>
+        <v>0.021</v>
       </c>
       <c r="G56">
-        <v>0.0025</v>
+        <v>0.022</v>
       </c>
       <c r="H56">
-        <v>0.0025</v>
-      </c>
-      <c r="I56" t="s">
-        <v>288</v>
+        <v>0.022</v>
+      </c>
+      <c r="I56">
+        <v>0.021</v>
       </c>
       <c r="J56">
-        <v>97.5806</v>
+        <v>92.3077</v>
       </c>
       <c r="K56" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2">
-        <v>44504.5625</v>
+        <v>44501.625</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -3489,68 +3519,68 @@
         <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="2">
-        <v>44864</v>
-      </c>
-      <c r="F57" t="s">
-        <v>254</v>
-      </c>
-      <c r="G57" t="s">
-        <v>302</v>
-      </c>
-      <c r="H57" t="s">
-        <v>301</v>
-      </c>
-      <c r="I57" t="s">
-        <v>346</v>
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57">
+        <v>60.5</v>
+      </c>
+      <c r="G57">
+        <v>60.8</v>
+      </c>
+      <c r="H57">
+        <v>61.1</v>
+      </c>
+      <c r="I57">
+        <v>60.5</v>
       </c>
       <c r="J57">
-        <v>98.3871</v>
+        <v>95.1613</v>
       </c>
       <c r="K57" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2">
-        <v>44505.5625</v>
+        <v>44502.41666666666</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
-      </c>
-      <c r="F58" t="s">
-        <v>255</v>
-      </c>
-      <c r="G58" t="s">
-        <v>303</v>
-      </c>
-      <c r="H58" t="s">
-        <v>298</v>
-      </c>
-      <c r="I58" t="s">
-        <v>330</v>
+        <v>208</v>
+      </c>
+      <c r="F58">
+        <v>58.5</v>
+      </c>
+      <c r="G58">
+        <v>58.3</v>
+      </c>
+      <c r="H58">
+        <v>58.6</v>
+      </c>
+      <c r="I58">
+        <v>58.3</v>
       </c>
       <c r="J58">
-        <v>99.1935</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2">
-        <v>44510.60416666666</v>
+        <v>44503.79166666666</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -3559,33 +3589,33 @@
         <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" t="s">
-        <v>198</v>
+        <v>186</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44868</v>
       </c>
       <c r="F59">
-        <v>0.006</v>
+        <v>0.0025</v>
       </c>
       <c r="G59">
-        <v>0.008999999999999999</v>
+        <v>0.0025</v>
       </c>
       <c r="H59">
-        <v>0.004</v>
+        <v>0.0025</v>
       </c>
       <c r="I59" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J59">
-        <v>96.77419999999999</v>
+        <v>97.5806</v>
       </c>
       <c r="K59" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="2">
-        <v>44510.60416666666</v>
+        <v>44504.5625</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -3594,103 +3624,103 @@
         <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E60" s="2">
-        <v>44871</v>
+        <v>44864</v>
       </c>
       <c r="F60" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G60" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H60" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I60" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J60">
         <v>98.3871</v>
       </c>
       <c r="K60" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2">
-        <v>44516.45833333334</v>
+        <v>44505.5625</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61">
-        <v>0.022</v>
-      </c>
-      <c r="G61">
-        <v>0.022</v>
-      </c>
-      <c r="H61">
-        <v>0.022</v>
-      </c>
-      <c r="I61">
-        <v>0.023</v>
+        <v>207</v>
+      </c>
+      <c r="F61" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I61" t="s">
+        <v>339</v>
       </c>
       <c r="J61">
-        <v>92.3077</v>
+        <v>99.1935</v>
       </c>
       <c r="K61" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2">
-        <v>44517.45833333334</v>
+        <v>44510.60416666666</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F62">
-        <v>0.041</v>
+        <v>0.006</v>
       </c>
       <c r="G62">
-        <v>0.041</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H62">
-        <v>0.041</v>
-      </c>
-      <c r="I62">
-        <v>0.034</v>
+        <v>0.004</v>
+      </c>
+      <c r="I62" t="s">
+        <v>297</v>
       </c>
       <c r="J62">
-        <v>94.87179999999999</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K62" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="2">
-        <v>44518.60416666666</v>
+        <v>44510.60416666666</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -3699,33 +3729,33 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E63" s="2">
-        <v>44878</v>
+        <v>44871</v>
       </c>
       <c r="F63" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G63" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H63" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I63" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J63">
         <v>98.3871</v>
       </c>
       <c r="K63" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2">
-        <v>44523.41666666666</v>
+        <v>44516.45833333334</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -3734,68 +3764,68 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F64">
-        <v>57.4</v>
-      </c>
-      <c r="G64" t="s">
-        <v>288</v>
+        <v>0.022</v>
+      </c>
+      <c r="G64">
+        <v>0.022</v>
       </c>
       <c r="H64">
-        <v>58.3</v>
-      </c>
-      <c r="I64" t="s">
-        <v>288</v>
+        <v>0.022</v>
+      </c>
+      <c r="I64">
+        <v>0.023</v>
       </c>
       <c r="J64">
-        <v>90</v>
+        <v>92.3077</v>
       </c>
       <c r="K64" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="2">
-        <v>44524.60416666666</v>
+        <v>44517.45833333334</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E65" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F65">
-        <v>0.022</v>
+        <v>0.041</v>
       </c>
       <c r="G65">
-        <v>0.021</v>
+        <v>0.041</v>
       </c>
       <c r="H65">
-        <v>0.02</v>
-      </c>
-      <c r="I65" t="s">
-        <v>288</v>
+        <v>0.041</v>
+      </c>
+      <c r="I65">
+        <v>0.034</v>
       </c>
       <c r="J65">
-        <v>95.96769999999999</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K65" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2">
-        <v>44524.60416666666</v>
+        <v>44518.60416666666</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -3804,33 +3834,33 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E66" s="2">
-        <v>44885</v>
+        <v>44878</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G66" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H66" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I66" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="J66">
         <v>98.3871</v>
       </c>
       <c r="K66" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2">
-        <v>44531.41666666666</v>
+        <v>44523.41666666666</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -3839,33 +3869,33 @@
         <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F67">
-        <v>58.6</v>
-      </c>
-      <c r="G67">
-        <v>58.4</v>
+        <v>57.4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>297</v>
       </c>
       <c r="H67">
         <v>58.3</v>
       </c>
-      <c r="I67">
-        <v>58.4</v>
+      <c r="I67" t="s">
+        <v>297</v>
       </c>
       <c r="J67">
         <v>90</v>
       </c>
       <c r="K67" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2">
-        <v>44531.66666666666</v>
+        <v>44524.60416666666</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -3874,33 +3904,33 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F68">
-        <v>61.2</v>
+        <v>0.022</v>
       </c>
       <c r="G68">
-        <v>61.1</v>
+        <v>0.021</v>
       </c>
       <c r="H68">
-        <v>60.8</v>
+        <v>0.02</v>
       </c>
       <c r="I68" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J68">
-        <v>95.1613</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2">
-        <v>44532.60416666666</v>
+        <v>44524.60416666666</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -3909,103 +3939,103 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E69" s="2">
-        <v>44892</v>
+        <v>44885</v>
       </c>
       <c r="F69" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G69" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H69" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I69" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="J69">
         <v>98.3871</v>
       </c>
       <c r="K69" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2">
-        <v>44533.60416666666</v>
+        <v>44531.41666666666</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" t="s">
-        <v>258</v>
-      </c>
-      <c r="G70" t="s">
-        <v>273</v>
-      </c>
-      <c r="H70" t="s">
-        <v>303</v>
-      </c>
-      <c r="I70" t="s">
-        <v>350</v>
+        <v>212</v>
+      </c>
+      <c r="F70">
+        <v>58.6</v>
+      </c>
+      <c r="G70">
+        <v>58.4</v>
+      </c>
+      <c r="H70">
+        <v>58.3</v>
+      </c>
+      <c r="I70">
+        <v>58.4</v>
       </c>
       <c r="J70">
-        <v>99.1935</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="2">
-        <v>44537.45833333334</v>
+        <v>44531.66666666666</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F71">
-        <v>0.022</v>
+        <v>61.2</v>
       </c>
       <c r="G71">
-        <v>0.022</v>
+        <v>61.1</v>
       </c>
       <c r="H71">
-        <v>0.022</v>
+        <v>60.8</v>
       </c>
       <c r="I71" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J71">
-        <v>92.3077</v>
+        <v>95.1613</v>
       </c>
       <c r="K71" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="2">
-        <v>44539.60416666666</v>
+        <v>44532.60416666666</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -4014,33 +4044,33 @@
         <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E72" s="2">
-        <v>44899</v>
+        <v>44892</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G72" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H72" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="I72" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="J72">
         <v>98.3871</v>
       </c>
       <c r="K72" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2">
-        <v>44540.60416666666</v>
+        <v>44533.60416666666</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -4049,103 +4079,103 @@
         <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
-      </c>
-      <c r="F73">
-        <v>0.007</v>
-      </c>
-      <c r="G73">
-        <v>0.008</v>
-      </c>
-      <c r="H73">
-        <v>0.008999999999999999</v>
+        <v>213</v>
+      </c>
+      <c r="F73" t="s">
+        <v>267</v>
+      </c>
+      <c r="G73" t="s">
+        <v>282</v>
+      </c>
+      <c r="H73" t="s">
+        <v>312</v>
       </c>
       <c r="I73" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="J73">
-        <v>96.77419999999999</v>
+        <v>99.1935</v>
       </c>
       <c r="K73" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="2">
-        <v>44545.83333333334</v>
+        <v>44537.45833333334</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="2">
-        <v>44910</v>
+        <v>188</v>
+      </c>
+      <c r="E74" t="s">
+        <v>214</v>
       </c>
       <c r="F74">
-        <v>0.0025</v>
+        <v>0.022</v>
       </c>
       <c r="G74">
-        <v>0.0025</v>
+        <v>0.022</v>
       </c>
       <c r="H74">
-        <v>0.0025</v>
+        <v>0.022</v>
       </c>
       <c r="I74" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J74">
-        <v>97.5806</v>
+        <v>92.3077</v>
       </c>
       <c r="K74" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2">
-        <v>44546.41666666666</v>
+        <v>44539.60416666666</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" t="s">
-        <v>206</v>
-      </c>
-      <c r="F75">
-        <v>57.8</v>
+        <v>180</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44899</v>
+      </c>
+      <c r="F75" t="s">
+        <v>268</v>
       </c>
       <c r="G75" t="s">
-        <v>288</v>
-      </c>
-      <c r="H75">
-        <v>58.4</v>
+        <v>317</v>
+      </c>
+      <c r="H75" t="s">
+        <v>316</v>
       </c>
       <c r="I75" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="J75">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K75" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="2">
-        <v>44546.60416666666</v>
+        <v>44540.60416666666</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -4154,138 +4184,138 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
-      </c>
-      <c r="E76" s="2">
-        <v>44906</v>
-      </c>
-      <c r="F76" t="s">
-        <v>260</v>
-      </c>
-      <c r="G76" t="s">
-        <v>262</v>
-      </c>
-      <c r="H76" t="s">
-        <v>308</v>
+        <v>183</v>
+      </c>
+      <c r="E76" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76">
+        <v>0.007</v>
+      </c>
+      <c r="G76">
+        <v>0.008</v>
+      </c>
+      <c r="H76">
+        <v>0.008999999999999999</v>
       </c>
       <c r="I76" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="J76">
-        <v>98.3871</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="2">
-        <v>44547.45833333334</v>
+        <v>44545.83333333334</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" t="s">
-        <v>203</v>
+        <v>186</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44910</v>
       </c>
       <c r="F77">
-        <v>0.049</v>
+        <v>0.0025</v>
       </c>
       <c r="G77">
-        <v>0.049</v>
+        <v>0.0025</v>
       </c>
       <c r="H77">
-        <v>0.049</v>
-      </c>
-      <c r="I77">
-        <v>0.041</v>
+        <v>0.0025</v>
+      </c>
+      <c r="I77" t="s">
+        <v>297</v>
       </c>
       <c r="J77">
-        <v>94.87179999999999</v>
+        <v>97.5806</v>
       </c>
       <c r="K77" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="2">
-        <v>44552.60416666666</v>
+        <v>44546.41666666666</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F78">
-        <v>0.021</v>
-      </c>
-      <c r="G78">
-        <v>0.023</v>
+        <v>57.8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>297</v>
       </c>
       <c r="H78">
-        <v>0.021</v>
+        <v>58.4</v>
       </c>
       <c r="I78" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J78">
-        <v>95.96769999999999</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="2">
-        <v>44553.60416666666</v>
+        <v>44546.57291666666</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E79" s="2">
-        <v>44913</v>
-      </c>
-      <c r="F79" t="s">
-        <v>261</v>
-      </c>
-      <c r="G79" t="s">
-        <v>261</v>
-      </c>
-      <c r="H79" t="s">
-        <v>262</v>
+        <v>44911</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="J79">
-        <v>98.3871</v>
+        <v>97.4359</v>
       </c>
       <c r="K79" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2">
-        <v>44560.60416666666</v>
+        <v>44546.60416666666</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -4294,33 +4324,33 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E80" s="2">
-        <v>44920</v>
+        <v>44906</v>
       </c>
       <c r="F80" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G80" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="H80" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="I80" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="J80">
         <v>98.3871</v>
       </c>
       <c r="K80" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="2">
-        <v>44564.41666666666</v>
+        <v>44547.45833333334</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -4329,33 +4359,33 @@
         <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F81">
-        <v>58</v>
+        <v>0.049</v>
       </c>
       <c r="G81">
-        <v>58</v>
+        <v>0.049</v>
       </c>
       <c r="H81">
-        <v>58.4</v>
+        <v>0.049</v>
       </c>
       <c r="I81">
-        <v>58</v>
+        <v>0.041</v>
       </c>
       <c r="J81">
-        <v>90</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K81" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="2">
-        <v>44565.66666666666</v>
+        <v>44552.60416666666</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -4364,33 +4394,33 @@
         <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F82">
-        <v>60</v>
+        <v>0.021</v>
       </c>
       <c r="G82">
-        <v>58.7</v>
+        <v>0.023</v>
       </c>
       <c r="H82">
-        <v>61.1</v>
-      </c>
-      <c r="I82">
-        <v>60.6</v>
+        <v>0.021</v>
+      </c>
+      <c r="I82" t="s">
+        <v>297</v>
       </c>
       <c r="J82">
-        <v>95.1613</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K82" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2">
-        <v>44567.60416666666</v>
+        <v>44553.60416666666</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
@@ -4399,33 +4429,33 @@
         <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E83" s="2">
-        <v>44562</v>
+        <v>44913</v>
       </c>
       <c r="F83" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="I83" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J83">
         <v>98.3871</v>
       </c>
       <c r="K83" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="2">
-        <v>44568.60416666666</v>
+        <v>44560.60416666666</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
@@ -4434,68 +4464,68 @@
         <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
-      </c>
-      <c r="E84" t="s">
-        <v>209</v>
+        <v>180</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44920</v>
       </c>
       <c r="F84" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="G84" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H84" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I84" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="J84">
-        <v>99.1935</v>
+        <v>98.3871</v>
       </c>
       <c r="K84" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="2">
-        <v>44573.60416666666</v>
+        <v>44564.41666666666</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
         <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F85">
-        <v>0.004</v>
+        <v>58</v>
       </c>
       <c r="G85">
-        <v>0.005</v>
+        <v>58</v>
       </c>
       <c r="H85">
-        <v>0.008</v>
+        <v>58.4</v>
       </c>
       <c r="I85">
-        <v>0.007</v>
+        <v>58</v>
       </c>
       <c r="J85">
-        <v>96.77419999999999</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="2">
-        <v>44574.60416666666</v>
+        <v>44565.66666666666</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
@@ -4504,68 +4534,68 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
-      </c>
-      <c r="E86" s="2">
-        <v>44569</v>
-      </c>
-      <c r="F86" t="s">
-        <v>260</v>
-      </c>
-      <c r="G86" t="s">
-        <v>268</v>
-      </c>
-      <c r="H86" t="s">
-        <v>310</v>
-      </c>
-      <c r="I86" t="s">
-        <v>354</v>
+        <v>181</v>
+      </c>
+      <c r="E86" t="s">
+        <v>218</v>
+      </c>
+      <c r="F86">
+        <v>60</v>
+      </c>
+      <c r="G86">
+        <v>58.7</v>
+      </c>
+      <c r="H86">
+        <v>61.1</v>
+      </c>
+      <c r="I86">
+        <v>60.6</v>
       </c>
       <c r="J86">
-        <v>98.3871</v>
+        <v>95.1613</v>
       </c>
       <c r="K86" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="2">
-        <v>44581.45833333334</v>
+        <v>44567.60416666666</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
-      </c>
-      <c r="E87" t="s">
-        <v>208</v>
-      </c>
-      <c r="F87">
-        <v>0.05</v>
-      </c>
-      <c r="G87">
-        <v>0.05</v>
-      </c>
-      <c r="H87">
-        <v>0.049</v>
+        <v>180</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44562</v>
+      </c>
+      <c r="F87" t="s">
+        <v>272</v>
+      </c>
+      <c r="G87" t="s">
+        <v>319</v>
+      </c>
+      <c r="H87" t="s">
+        <v>318</v>
       </c>
       <c r="I87" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="J87">
-        <v>94.87179999999999</v>
+        <v>98.3871</v>
       </c>
       <c r="K87" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2">
-        <v>44581.60416666666</v>
+        <v>44568.60416666666</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -4574,68 +4604,68 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
-      </c>
-      <c r="E88" s="2">
-        <v>44576</v>
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>218</v>
       </c>
       <c r="F88" t="s">
         <v>264</v>
       </c>
       <c r="G88" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H88" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="I88" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="J88">
-        <v>98.3871</v>
+        <v>99.1935</v>
       </c>
       <c r="K88" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2">
-        <v>44585.41666666666</v>
+        <v>44573.60416666666</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F89">
-        <v>57.5</v>
-      </c>
-      <c r="G89" t="s">
-        <v>288</v>
+        <v>0.004</v>
+      </c>
+      <c r="G89">
+        <v>0.005</v>
       </c>
       <c r="H89">
-        <v>58</v>
-      </c>
-      <c r="I89" t="s">
-        <v>288</v>
+        <v>0.008</v>
+      </c>
+      <c r="I89">
+        <v>0.007</v>
       </c>
       <c r="J89">
-        <v>90</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K89" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="2">
-        <v>44587.83333333334</v>
+        <v>44574.60416666666</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -4644,68 +4674,68 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E90" s="2">
-        <v>44587</v>
-      </c>
-      <c r="F90">
-        <v>0.0025</v>
-      </c>
-      <c r="G90">
-        <v>0.0025</v>
-      </c>
-      <c r="H90">
-        <v>0.0025</v>
+        <v>44569</v>
+      </c>
+      <c r="F90" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" t="s">
+        <v>277</v>
+      </c>
+      <c r="H90" t="s">
+        <v>319</v>
       </c>
       <c r="I90" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="J90">
-        <v>97.5806</v>
+        <v>98.3871</v>
       </c>
       <c r="K90" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="2">
-        <v>44588.60416666666</v>
+        <v>44581.45833333334</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91" s="2">
-        <v>44583</v>
-      </c>
-      <c r="F91" t="s">
-        <v>265</v>
-      </c>
-      <c r="G91" t="s">
-        <v>256</v>
-      </c>
-      <c r="H91" t="s">
-        <v>311</v>
+        <v>184</v>
+      </c>
+      <c r="E91" t="s">
+        <v>217</v>
+      </c>
+      <c r="F91">
+        <v>0.05</v>
+      </c>
+      <c r="G91">
+        <v>0.05</v>
+      </c>
+      <c r="H91">
+        <v>0.049</v>
       </c>
       <c r="I91" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="J91">
-        <v>98.3871</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K91" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="2">
-        <v>44588.60416666666</v>
+        <v>44581.60416666666</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -4714,33 +4744,33 @@
         <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>178</v>
-      </c>
-      <c r="E92" t="s">
-        <v>211</v>
-      </c>
-      <c r="F92">
-        <v>0.055</v>
-      </c>
-      <c r="G92">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="H92">
-        <v>0.023</v>
+        <v>180</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44576</v>
+      </c>
+      <c r="F92" t="s">
+        <v>273</v>
+      </c>
+      <c r="G92" t="s">
+        <v>320</v>
+      </c>
+      <c r="H92" t="s">
+        <v>277</v>
       </c>
       <c r="I92" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J92">
-        <v>95.96769999999999</v>
+        <v>98.3871</v>
       </c>
       <c r="K92" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="2">
-        <v>44592.45833333334</v>
+        <v>44585.41666666666</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -4752,65 +4782,65 @@
         <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F93">
-        <v>0.004</v>
-      </c>
-      <c r="G93">
-        <v>0.003</v>
+        <v>57.5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>297</v>
       </c>
       <c r="H93">
-        <v>0.022</v>
-      </c>
-      <c r="I93">
-        <v>0.023</v>
+        <v>58</v>
+      </c>
+      <c r="I93" t="s">
+        <v>297</v>
       </c>
       <c r="J93">
-        <v>92.3077</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="2">
-        <v>44593.41666666666</v>
+        <v>44587.83333333334</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>171</v>
-      </c>
-      <c r="E94" t="s">
-        <v>212</v>
+        <v>186</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44587</v>
       </c>
       <c r="F94">
-        <v>59</v>
+        <v>0.0025</v>
       </c>
       <c r="G94">
-        <v>58.7</v>
+        <v>0.0025</v>
       </c>
       <c r="H94">
-        <v>58</v>
-      </c>
-      <c r="I94">
-        <v>58.7</v>
+        <v>0.0025</v>
+      </c>
+      <c r="I94" t="s">
+        <v>297</v>
       </c>
       <c r="J94">
-        <v>90</v>
+        <v>97.5806</v>
       </c>
       <c r="K94" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="2">
-        <v>44593.66666666666</v>
+        <v>44588.60416666666</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -4819,33 +4849,33 @@
         <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F95">
-        <v>57.5</v>
+        <v>0.055</v>
       </c>
       <c r="G95">
-        <v>57.6</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H95">
-        <v>58.7</v>
-      </c>
-      <c r="I95">
-        <v>58.8</v>
+        <v>0.023</v>
+      </c>
+      <c r="I95" t="s">
+        <v>297</v>
       </c>
       <c r="J95">
-        <v>95.1613</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="2">
-        <v>44595.60416666666</v>
+        <v>44588.60416666666</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
@@ -4854,103 +4884,103 @@
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E96" s="2">
-        <v>44590</v>
+        <v>44583</v>
       </c>
       <c r="F96" t="s">
+        <v>274</v>
+      </c>
+      <c r="G96" t="s">
+        <v>265</v>
+      </c>
+      <c r="H96" t="s">
+        <v>320</v>
+      </c>
+      <c r="I96" t="s">
         <v>266</v>
-      </c>
-      <c r="G96" t="s">
-        <v>312</v>
-      </c>
-      <c r="H96" t="s">
-        <v>256</v>
-      </c>
-      <c r="I96" t="s">
-        <v>307</v>
       </c>
       <c r="J96">
         <v>98.3871</v>
       </c>
       <c r="K96" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="2">
-        <v>44596.60416666666</v>
+        <v>44592.45833333334</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
         <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" t="s">
-        <v>267</v>
-      </c>
-      <c r="G97" t="s">
-        <v>313</v>
-      </c>
-      <c r="H97" t="s">
-        <v>306</v>
-      </c>
-      <c r="I97" t="s">
-        <v>355</v>
+        <v>220</v>
+      </c>
+      <c r="F97">
+        <v>0.004</v>
+      </c>
+      <c r="G97">
+        <v>0.003</v>
+      </c>
+      <c r="H97">
+        <v>0.022</v>
+      </c>
+      <c r="I97">
+        <v>0.023</v>
       </c>
       <c r="J97">
-        <v>99.1935</v>
+        <v>92.3077</v>
       </c>
       <c r="K97" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="2">
-        <v>44602.60416666666</v>
+        <v>44593.41666666666</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F98">
-        <v>0.004</v>
+        <v>59</v>
       </c>
       <c r="G98">
-        <v>0.006</v>
+        <v>58.7</v>
       </c>
       <c r="H98">
-        <v>0.005</v>
+        <v>58</v>
       </c>
       <c r="I98">
-        <v>0.006</v>
+        <v>58.7</v>
       </c>
       <c r="J98">
-        <v>96.77419999999999</v>
+        <v>90</v>
       </c>
       <c r="K98" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="2">
-        <v>44602.60416666666</v>
+        <v>44593.66666666666</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
@@ -4959,33 +4989,33 @@
         <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
-      </c>
-      <c r="E99" s="2">
-        <v>44597</v>
-      </c>
-      <c r="F99" t="s">
-        <v>268</v>
-      </c>
-      <c r="G99" t="s">
-        <v>314</v>
-      </c>
-      <c r="H99" t="s">
-        <v>312</v>
-      </c>
-      <c r="I99" t="s">
-        <v>319</v>
+        <v>181</v>
+      </c>
+      <c r="E99" t="s">
+        <v>222</v>
+      </c>
+      <c r="F99">
+        <v>57.5</v>
+      </c>
+      <c r="G99">
+        <v>57.6</v>
+      </c>
+      <c r="H99">
+        <v>58.7</v>
+      </c>
+      <c r="I99">
+        <v>58.8</v>
       </c>
       <c r="J99">
-        <v>98.3871</v>
+        <v>95.1613</v>
       </c>
       <c r="K99" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="2">
-        <v>44607.45833333334</v>
+        <v>44595.57291666666</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -4994,33 +5024,33 @@
         <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E100" t="s">
-        <v>214</v>
+        <v>185</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44595</v>
       </c>
       <c r="F100">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0.003</v>
-      </c>
-      <c r="I100">
-        <v>0.002</v>
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>297</v>
       </c>
       <c r="J100">
-        <v>92.3077</v>
+        <v>97.4359</v>
       </c>
       <c r="K100" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="2">
-        <v>44609.60416666666</v>
+        <v>44595.60416666666</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -5029,103 +5059,103 @@
         <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E101" s="2">
-        <v>44604</v>
+        <v>44590</v>
       </c>
       <c r="F101" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G101" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H101" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="I101" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="J101">
         <v>98.3871</v>
       </c>
       <c r="K101" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="2">
-        <v>44613.41666666666</v>
+        <v>44596.60416666666</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E102" t="s">
-        <v>215</v>
-      </c>
-      <c r="F102">
-        <v>58.7</v>
+        <v>222</v>
+      </c>
+      <c r="F102" t="s">
+        <v>276</v>
       </c>
       <c r="G102" t="s">
-        <v>288</v>
-      </c>
-      <c r="H102">
-        <v>58.7</v>
+        <v>322</v>
+      </c>
+      <c r="H102" t="s">
+        <v>315</v>
       </c>
       <c r="I102" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="J102">
-        <v>90</v>
+        <v>99.1935</v>
       </c>
       <c r="K102" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="2">
-        <v>44615.45833333334</v>
+        <v>44602.60416666666</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
-      </c>
-      <c r="E103" t="s">
-        <v>212</v>
-      </c>
-      <c r="F103">
-        <v>0.051</v>
-      </c>
-      <c r="G103">
-        <v>0.051</v>
-      </c>
-      <c r="H103">
-        <v>0.05</v>
-      </c>
-      <c r="I103">
-        <v>0.05</v>
+        <v>180</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44597</v>
+      </c>
+      <c r="F103" t="s">
+        <v>277</v>
+      </c>
+      <c r="G103" t="s">
+        <v>323</v>
+      </c>
+      <c r="H103" t="s">
+        <v>321</v>
+      </c>
+      <c r="I103" t="s">
+        <v>328</v>
       </c>
       <c r="J103">
-        <v>94.87179999999999</v>
+        <v>98.3871</v>
       </c>
       <c r="K103" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="2">
-        <v>44616.60416666666</v>
+        <v>44602.60416666666</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
@@ -5134,173 +5164,173 @@
         <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E104" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F104">
-        <v>0.07000000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="G104">
-        <v>0.07000000000000001</v>
+        <v>0.006</v>
       </c>
       <c r="H104">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="I104" t="s">
-        <v>288</v>
+        <v>0.005</v>
+      </c>
+      <c r="I104">
+        <v>0.006</v>
       </c>
       <c r="J104">
-        <v>95.96769999999999</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K104" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="2">
-        <v>44616.60416666666</v>
+        <v>44607.45833333334</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" s="2">
-        <v>44611</v>
-      </c>
-      <c r="F105" t="s">
-        <v>270</v>
-      </c>
-      <c r="G105" t="s">
-        <v>316</v>
-      </c>
-      <c r="H105" t="s">
-        <v>315</v>
-      </c>
-      <c r="I105" t="s">
-        <v>357</v>
+        <v>188</v>
+      </c>
+      <c r="E105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105">
+        <v>0.003</v>
+      </c>
+      <c r="G105">
+        <v>0.003</v>
+      </c>
+      <c r="H105">
+        <v>0.003</v>
+      </c>
+      <c r="I105">
+        <v>0.002</v>
       </c>
       <c r="J105">
-        <v>98.3871</v>
+        <v>92.3077</v>
       </c>
       <c r="K105" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2">
-        <v>44621.41666666666</v>
+        <v>44609.60416666666</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" t="s">
-        <v>217</v>
-      </c>
-      <c r="F106">
-        <v>58.4</v>
-      </c>
-      <c r="G106">
-        <v>58.2</v>
-      </c>
-      <c r="H106">
-        <v>58.7</v>
-      </c>
-      <c r="I106">
-        <v>58.2</v>
+        <v>180</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44604</v>
+      </c>
+      <c r="F106" t="s">
+        <v>278</v>
+      </c>
+      <c r="G106" t="s">
+        <v>324</v>
+      </c>
+      <c r="H106" t="s">
+        <v>323</v>
+      </c>
+      <c r="I106" t="s">
+        <v>365</v>
       </c>
       <c r="J106">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K106" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="2">
-        <v>44621.66666666666</v>
+        <v>44613.41666666666</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
         <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E107" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F107">
-        <v>58</v>
-      </c>
-      <c r="G107">
-        <v>58.6</v>
+        <v>58.7</v>
+      </c>
+      <c r="G107" t="s">
+        <v>297</v>
       </c>
       <c r="H107">
-        <v>57.6</v>
+        <v>58.7</v>
       </c>
       <c r="I107" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J107">
-        <v>95.1613</v>
+        <v>90</v>
       </c>
       <c r="K107" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="2">
-        <v>44623.60416666666</v>
+        <v>44615.45833333334</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
-      </c>
-      <c r="E108" s="2">
-        <v>44618</v>
-      </c>
-      <c r="F108" t="s">
-        <v>264</v>
-      </c>
-      <c r="G108" t="s">
-        <v>280</v>
-      </c>
-      <c r="H108" t="s">
-        <v>316</v>
-      </c>
-      <c r="I108" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="E108" t="s">
+        <v>221</v>
+      </c>
+      <c r="F108">
+        <v>0.051</v>
+      </c>
+      <c r="G108">
+        <v>0.051</v>
+      </c>
+      <c r="H108">
+        <v>0.05</v>
+      </c>
+      <c r="I108">
+        <v>0.05</v>
       </c>
       <c r="J108">
-        <v>98.3871</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K108" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="2">
-        <v>44624.60416666666</v>
+        <v>44616.60416666666</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
@@ -5309,103 +5339,103 @@
         <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E109" t="s">
-        <v>218</v>
-      </c>
-      <c r="F109" t="s">
-        <v>271</v>
-      </c>
-      <c r="G109" t="s">
-        <v>317</v>
-      </c>
-      <c r="H109" t="s">
-        <v>313</v>
+        <v>225</v>
+      </c>
+      <c r="F109">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G109">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H109">
+        <v>0.06900000000000001</v>
       </c>
       <c r="I109" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="J109">
-        <v>99.1935</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K109" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2">
-        <v>44628.45833333334</v>
+        <v>44616.60416666666</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>179</v>
-      </c>
-      <c r="E110" t="s">
-        <v>219</v>
-      </c>
-      <c r="F110">
-        <v>0.003</v>
-      </c>
-      <c r="G110">
-        <v>0.003</v>
-      </c>
-      <c r="H110">
-        <v>0.003</v>
+        <v>180</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44611</v>
+      </c>
+      <c r="F110" t="s">
+        <v>279</v>
+      </c>
+      <c r="G110" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" t="s">
+        <v>324</v>
       </c>
       <c r="I110" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="J110">
-        <v>92.3077</v>
+        <v>98.3871</v>
       </c>
       <c r="K110" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="2">
-        <v>44630.60416666666</v>
+        <v>44621.41666666666</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
         <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>172</v>
-      </c>
-      <c r="E111" s="2">
-        <v>44625</v>
-      </c>
-      <c r="F111" t="s">
-        <v>272</v>
-      </c>
-      <c r="G111" t="s">
-        <v>318</v>
-      </c>
-      <c r="H111" t="s">
-        <v>280</v>
-      </c>
-      <c r="I111" t="s">
-        <v>359</v>
+        <v>179</v>
+      </c>
+      <c r="E111" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111">
+        <v>58.4</v>
+      </c>
+      <c r="G111">
+        <v>58.2</v>
+      </c>
+      <c r="H111">
+        <v>58.7</v>
+      </c>
+      <c r="I111">
+        <v>58.2</v>
       </c>
       <c r="J111">
-        <v>98.3871</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2">
-        <v>44630.60416666666</v>
+        <v>44621.66666666666</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
@@ -5414,33 +5444,33 @@
         <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F112">
-        <v>0.008</v>
+        <v>58</v>
       </c>
       <c r="G112">
-        <v>0.008</v>
+        <v>58.6</v>
       </c>
       <c r="H112">
-        <v>0.006</v>
+        <v>57.6</v>
       </c>
       <c r="I112" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J112">
-        <v>96.77419999999999</v>
+        <v>95.1613</v>
       </c>
       <c r="K112" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2">
-        <v>44636.79166666666</v>
+        <v>44623.60416666666</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -5449,103 +5479,103 @@
         <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E113" s="2">
-        <v>44636</v>
-      </c>
-      <c r="F113">
-        <v>0.005</v>
-      </c>
-      <c r="G113">
-        <v>0.005</v>
-      </c>
-      <c r="H113">
-        <v>0.0025</v>
+        <v>44618</v>
+      </c>
+      <c r="F113" t="s">
+        <v>273</v>
+      </c>
+      <c r="G113" t="s">
+        <v>289</v>
+      </c>
+      <c r="H113" t="s">
+        <v>325</v>
       </c>
       <c r="I113" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="J113">
-        <v>97.5806</v>
+        <v>98.3871</v>
       </c>
       <c r="K113" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="2">
-        <v>44637.45833333334</v>
+        <v>44624.60416666666</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
-      </c>
-      <c r="F114">
-        <v>0.058</v>
-      </c>
-      <c r="G114">
-        <v>0.059</v>
-      </c>
-      <c r="H114">
-        <v>0.058</v>
-      </c>
-      <c r="I114">
-        <v>0.051</v>
+        <v>227</v>
+      </c>
+      <c r="F114" t="s">
+        <v>280</v>
+      </c>
+      <c r="G114" t="s">
+        <v>326</v>
+      </c>
+      <c r="H114" t="s">
+        <v>322</v>
+      </c>
+      <c r="I114" t="s">
+        <v>367</v>
       </c>
       <c r="J114">
-        <v>94.87179999999999</v>
+        <v>99.1935</v>
       </c>
       <c r="K114" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="2">
-        <v>44637.5625</v>
+        <v>44628.45833333334</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="2">
-        <v>44632</v>
-      </c>
-      <c r="F115" t="s">
-        <v>259</v>
-      </c>
-      <c r="G115" t="s">
-        <v>319</v>
-      </c>
-      <c r="H115" t="s">
-        <v>318</v>
+        <v>188</v>
+      </c>
+      <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115">
+        <v>0.003</v>
+      </c>
+      <c r="G115">
+        <v>0.003</v>
+      </c>
+      <c r="H115">
+        <v>0.003</v>
       </c>
       <c r="I115" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J115">
-        <v>98.3871</v>
+        <v>92.3077</v>
       </c>
       <c r="K115" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2">
-        <v>44644.41666666666</v>
+        <v>44630.57291666666</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -5554,33 +5584,33 @@
         <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
-      </c>
-      <c r="E116" t="s">
-        <v>220</v>
+        <v>185</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44630</v>
       </c>
       <c r="F116">
-        <v>56</v>
-      </c>
-      <c r="G116" t="s">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>58.2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J116">
-        <v>90</v>
+        <v>97.4359</v>
       </c>
       <c r="K116" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="2">
-        <v>44644.5625</v>
+        <v>44630.60416666666</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
@@ -5589,33 +5619,33 @@
         <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E117" s="2">
-        <v>44639</v>
+        <v>44625</v>
       </c>
       <c r="F117" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G117" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H117" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="I117" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="J117">
         <v>98.3871</v>
       </c>
       <c r="K117" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2">
-        <v>44650.60416666666</v>
+        <v>44630.60416666666</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -5624,33 +5654,33 @@
         <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F118">
-        <v>0.07000000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="G118">
-        <v>0.06900000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="H118">
-        <v>0.07000000000000001</v>
+        <v>0.006</v>
       </c>
       <c r="I118" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J118">
-        <v>95.96769999999999</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K118" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="2">
-        <v>44651.60416666666</v>
+        <v>44636.79166666666</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -5659,33 +5689,33 @@
         <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E119" s="2">
-        <v>44646</v>
-      </c>
-      <c r="F119" t="s">
-        <v>274</v>
-      </c>
-      <c r="G119" t="s">
-        <v>321</v>
-      </c>
-      <c r="H119" t="s">
-        <v>320</v>
+        <v>44636</v>
+      </c>
+      <c r="F119">
+        <v>0.005</v>
+      </c>
+      <c r="G119">
+        <v>0.005</v>
+      </c>
+      <c r="H119">
+        <v>0.0025</v>
       </c>
       <c r="I119" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J119">
-        <v>98.3871</v>
+        <v>97.5806</v>
       </c>
       <c r="K119" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="2">
-        <v>44652.41666666666</v>
+        <v>44637.45833333334</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -5694,33 +5724,33 @@
         <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E120" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F120">
-        <v>57</v>
+        <v>0.058</v>
       </c>
       <c r="G120">
-        <v>56.5</v>
+        <v>0.059</v>
       </c>
       <c r="H120">
-        <v>58.2</v>
+        <v>0.058</v>
       </c>
       <c r="I120">
-        <v>56.5</v>
+        <v>0.051</v>
       </c>
       <c r="J120">
-        <v>90</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K120" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="2">
-        <v>44652.60416666666</v>
+        <v>44637.5625</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -5729,68 +5759,68 @@
         <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
-      </c>
-      <c r="E121" t="s">
-        <v>223</v>
+        <v>180</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44632</v>
       </c>
       <c r="F121" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G121" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H121" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="I121" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="J121">
-        <v>99.1935</v>
+        <v>98.3871</v>
       </c>
       <c r="K121" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="2">
-        <v>44652.66666666666</v>
+        <v>44644.41666666666</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F122">
-        <v>59</v>
-      </c>
-      <c r="G122">
-        <v>57.1</v>
+        <v>56</v>
+      </c>
+      <c r="G122" t="s">
+        <v>297</v>
       </c>
       <c r="H122">
-        <v>58.6</v>
+        <v>58.2</v>
       </c>
       <c r="I122" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J122">
-        <v>95.1613</v>
+        <v>90</v>
       </c>
       <c r="K122" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="2">
-        <v>44658.60416666666</v>
+        <v>44644.5625</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -5799,33 +5829,33 @@
         <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E123" s="2">
-        <v>44653</v>
+        <v>44639</v>
       </c>
       <c r="F123" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="G123" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H123" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="I123" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="J123">
         <v>98.3871</v>
       </c>
       <c r="K123" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="2">
-        <v>44663.60416666666</v>
+        <v>44650.60416666666</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -5834,33 +5864,33 @@
         <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F124">
-        <v>0.012</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G124">
-        <v>0.012</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H124">
-        <v>0.008</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I124" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J124">
-        <v>96.77419999999999</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K124" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="2">
-        <v>44665.60416666666</v>
+        <v>44651.60416666666</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -5869,33 +5899,33 @@
         <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E125" s="2">
-        <v>44660</v>
+        <v>44646</v>
       </c>
       <c r="F125" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G125" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H125" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I125" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="J125">
         <v>98.3871</v>
       </c>
       <c r="K125" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="2">
-        <v>44672.45833333334</v>
+        <v>44652.41666666666</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -5904,33 +5934,33 @@
         <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F126">
-        <v>0.075</v>
+        <v>57</v>
       </c>
       <c r="G126">
-        <v>0.074</v>
+        <v>56.5</v>
       </c>
       <c r="H126">
-        <v>0.075</v>
+        <v>58.2</v>
       </c>
       <c r="I126">
-        <v>0.059</v>
+        <v>56.5</v>
       </c>
       <c r="J126">
-        <v>94.87179999999999</v>
+        <v>90</v>
       </c>
       <c r="K126" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="2">
-        <v>44672.60416666666</v>
+        <v>44652.60416666666</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -5939,68 +5969,68 @@
         <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>172</v>
-      </c>
-      <c r="E127" s="2">
-        <v>44667</v>
+        <v>182</v>
+      </c>
+      <c r="E127" t="s">
+        <v>232</v>
       </c>
       <c r="F127" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G127" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="H127" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I127" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="J127">
-        <v>98.3871</v>
+        <v>99.1935</v>
       </c>
       <c r="K127" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="2">
-        <v>44673.41666666666</v>
+        <v>44652.66666666666</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
         <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E128" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F128">
-        <v>54.9</v>
-      </c>
-      <c r="G128" t="s">
-        <v>288</v>
+        <v>59</v>
+      </c>
+      <c r="G128">
+        <v>57.1</v>
       </c>
       <c r="H128">
-        <v>56.5</v>
+        <v>58.6</v>
       </c>
       <c r="I128" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J128">
-        <v>90</v>
+        <v>95.1613</v>
       </c>
       <c r="K128" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="2">
-        <v>44679.60416666666</v>
+        <v>44658.60416666666</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -6009,33 +6039,33 @@
         <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>178</v>
-      </c>
-      <c r="E129" t="s">
-        <v>225</v>
-      </c>
-      <c r="F129">
-        <v>0.01</v>
-      </c>
-      <c r="G129">
-        <v>-0.014</v>
-      </c>
-      <c r="H129">
-        <v>0.06900000000000001</v>
+        <v>180</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F129" t="s">
+        <v>269</v>
+      </c>
+      <c r="G129" t="s">
+        <v>332</v>
+      </c>
+      <c r="H129" t="s">
+        <v>330</v>
       </c>
       <c r="I129" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="J129">
-        <v>95.96769999999999</v>
+        <v>98.3871</v>
       </c>
       <c r="K129" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="2">
-        <v>44679.60416666666</v>
+        <v>44663.60416666666</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -6044,33 +6074,33 @@
         <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>172</v>
-      </c>
-      <c r="E130" s="2">
-        <v>44674</v>
-      </c>
-      <c r="F130" t="s">
-        <v>277</v>
-      </c>
-      <c r="G130" t="s">
-        <v>277</v>
-      </c>
-      <c r="H130" t="s">
-        <v>308</v>
+        <v>183</v>
+      </c>
+      <c r="E130" t="s">
+        <v>232</v>
+      </c>
+      <c r="F130">
+        <v>0.012</v>
+      </c>
+      <c r="G130">
+        <v>0.012</v>
+      </c>
+      <c r="H130">
+        <v>0.008</v>
       </c>
       <c r="I130" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="J130">
-        <v>98.3871</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K130" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="2">
-        <v>44680.45833333334</v>
+        <v>44665.57291666666</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -6079,103 +6109,103 @@
         <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>179</v>
-      </c>
-      <c r="E131" t="s">
-        <v>225</v>
+        <v>185</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44665</v>
       </c>
       <c r="F131">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J131">
-        <v>92.3077</v>
+        <v>97.4359</v>
       </c>
       <c r="K131" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="2">
-        <v>44683.41666666666</v>
+        <v>44665.60416666666</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>171</v>
-      </c>
-      <c r="E132" t="s">
-        <v>226</v>
-      </c>
-      <c r="F132">
-        <v>55.3</v>
-      </c>
-      <c r="G132">
-        <v>55.5</v>
-      </c>
-      <c r="H132">
-        <v>56.5</v>
-      </c>
-      <c r="I132">
-        <v>55.5</v>
+        <v>180</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44660</v>
+      </c>
+      <c r="F132" t="s">
+        <v>285</v>
+      </c>
+      <c r="G132" t="s">
+        <v>333</v>
+      </c>
+      <c r="H132" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" t="s">
+        <v>372</v>
       </c>
       <c r="J132">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K132" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="2">
-        <v>44683.66666666666</v>
+        <v>44672.45833333334</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E133" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F133">
-        <v>57.6</v>
+        <v>0.075</v>
       </c>
       <c r="G133">
-        <v>55.4</v>
+        <v>0.074</v>
       </c>
       <c r="H133">
-        <v>57.1</v>
-      </c>
-      <c r="I133" t="s">
-        <v>288</v>
+        <v>0.075</v>
+      </c>
+      <c r="I133">
+        <v>0.059</v>
       </c>
       <c r="J133">
-        <v>95.1613</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K133" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="2">
-        <v>44685.83333333334</v>
+        <v>44672.60416666666</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -6184,68 +6214,68 @@
         <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E134" s="2">
-        <v>44685</v>
-      </c>
-      <c r="F134">
-        <v>0.01</v>
-      </c>
-      <c r="G134">
-        <v>0.01</v>
-      </c>
-      <c r="H134">
-        <v>0.005</v>
+        <v>44667</v>
+      </c>
+      <c r="F134" t="s">
+        <v>286</v>
+      </c>
+      <c r="G134" t="s">
+        <v>317</v>
+      </c>
+      <c r="H134" t="s">
+        <v>333</v>
       </c>
       <c r="I134" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="J134">
-        <v>97.5806</v>
+        <v>98.3871</v>
       </c>
       <c r="K134" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="2">
-        <v>44686.60416666666</v>
+        <v>44673.41666666666</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
-      </c>
-      <c r="E135" s="2">
-        <v>44681</v>
-      </c>
-      <c r="F135" t="s">
-        <v>277</v>
+        <v>179</v>
+      </c>
+      <c r="E135" t="s">
+        <v>233</v>
+      </c>
+      <c r="F135">
+        <v>54.9</v>
       </c>
       <c r="G135" t="s">
-        <v>260</v>
-      </c>
-      <c r="H135" t="s">
-        <v>277</v>
+        <v>297</v>
+      </c>
+      <c r="H135">
+        <v>56.5</v>
       </c>
       <c r="I135" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="J135">
-        <v>98.3871</v>
+        <v>90</v>
       </c>
       <c r="K135" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="2">
-        <v>44687.60416666666</v>
+        <v>44679.60416666666</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -6254,33 +6284,33 @@
         <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>174</v>
-      </c>
-      <c r="E136" t="s">
-        <v>227</v>
+        <v>180</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44674</v>
       </c>
       <c r="F136" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G136" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="H136" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I136" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="J136">
-        <v>99.1935</v>
+        <v>98.3871</v>
       </c>
       <c r="K136" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="2">
-        <v>44692.60416666666</v>
+        <v>44679.60416666666</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -6289,68 +6319,68 @@
         <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E137" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F137">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="G137">
-        <v>0.003</v>
+        <v>-0.014</v>
       </c>
       <c r="H137">
-        <v>0.012</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I137" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J137">
-        <v>96.77419999999999</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K137" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="2">
-        <v>44693.60416666666</v>
+        <v>44680.45833333334</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>172</v>
-      </c>
-      <c r="E138" s="2">
-        <v>44688</v>
-      </c>
-      <c r="F138" t="s">
-        <v>279</v>
-      </c>
-      <c r="G138" t="s">
-        <v>326</v>
-      </c>
-      <c r="H138" t="s">
-        <v>260</v>
+        <v>188</v>
+      </c>
+      <c r="E138" t="s">
+        <v>234</v>
+      </c>
+      <c r="F138">
+        <v>0.002</v>
+      </c>
+      <c r="G138">
+        <v>0.002</v>
+      </c>
+      <c r="H138">
+        <v>0.003</v>
       </c>
       <c r="I138" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="J138">
-        <v>98.3871</v>
+        <v>92.3077</v>
       </c>
       <c r="K138" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="2">
-        <v>44698.45833333334</v>
+        <v>44683.41666666666</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -6362,65 +6392,65 @@
         <v>179</v>
       </c>
       <c r="E139" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F139">
-        <v>0.002</v>
+        <v>55.3</v>
       </c>
       <c r="G139">
-        <v>0.003</v>
+        <v>55.5</v>
       </c>
       <c r="H139">
-        <v>0.002</v>
+        <v>56.5</v>
       </c>
       <c r="I139">
-        <v>0.006</v>
+        <v>55.5</v>
       </c>
       <c r="J139">
-        <v>92.3077</v>
+        <v>90</v>
       </c>
       <c r="K139" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="2">
-        <v>44699.45833333334</v>
+        <v>44683.66666666666</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E140" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F140">
-        <v>0.075</v>
+        <v>57.6</v>
       </c>
       <c r="G140">
-        <v>0.074</v>
+        <v>55.4</v>
       </c>
       <c r="H140">
-        <v>0.074</v>
+        <v>57.1</v>
       </c>
       <c r="I140" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J140">
-        <v>94.87179999999999</v>
+        <v>95.1613</v>
       </c>
       <c r="K140" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="2">
-        <v>44700.60416666666</v>
+        <v>44685.83333333334</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -6429,68 +6459,68 @@
         <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E141" s="2">
-        <v>44695</v>
-      </c>
-      <c r="F141" t="s">
-        <v>260</v>
-      </c>
-      <c r="G141" t="s">
-        <v>269</v>
-      </c>
-      <c r="H141" t="s">
-        <v>326</v>
+        <v>44685</v>
+      </c>
+      <c r="F141">
+        <v>0.01</v>
+      </c>
+      <c r="G141">
+        <v>0.01</v>
+      </c>
+      <c r="H141">
+        <v>0.005</v>
       </c>
       <c r="I141" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="J141">
-        <v>98.3871</v>
+        <v>97.5806</v>
       </c>
       <c r="K141" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="2">
-        <v>44705.41666666666</v>
+        <v>44686.60416666666</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>171</v>
-      </c>
-      <c r="E142" t="s">
-        <v>229</v>
-      </c>
-      <c r="F142">
-        <v>54.7</v>
+        <v>180</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F142" t="s">
+        <v>286</v>
       </c>
       <c r="G142" t="s">
-        <v>288</v>
-      </c>
-      <c r="H142">
-        <v>55.5</v>
+        <v>269</v>
+      </c>
+      <c r="H142" t="s">
+        <v>286</v>
       </c>
       <c r="I142" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="J142">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K142" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="2">
-        <v>44707.60416666666</v>
+        <v>44687.60416666666</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -6499,33 +6529,33 @@
         <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E143" t="s">
-        <v>230</v>
-      </c>
-      <c r="F143">
-        <v>-0.013</v>
-      </c>
-      <c r="G143">
-        <v>-0.015</v>
-      </c>
-      <c r="H143">
-        <v>-0.014</v>
+        <v>236</v>
+      </c>
+      <c r="F143" t="s">
+        <v>287</v>
+      </c>
+      <c r="G143" t="s">
+        <v>334</v>
+      </c>
+      <c r="H143" t="s">
+        <v>331</v>
       </c>
       <c r="I143" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="J143">
-        <v>95.96769999999999</v>
+        <v>99.1935</v>
       </c>
       <c r="K143" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="2">
-        <v>44707.60416666666</v>
+        <v>44692.60416666666</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -6534,138 +6564,138 @@
         <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>172</v>
-      </c>
-      <c r="E144" s="2">
-        <v>44702</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
-      </c>
-      <c r="G144" t="s">
-        <v>273</v>
-      </c>
-      <c r="H144" t="s">
-        <v>269</v>
+        <v>183</v>
+      </c>
+      <c r="E144" t="s">
+        <v>236</v>
+      </c>
+      <c r="F144">
+        <v>0.002</v>
+      </c>
+      <c r="G144">
+        <v>0.003</v>
+      </c>
+      <c r="H144">
+        <v>0.012</v>
       </c>
       <c r="I144" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J144">
-        <v>98.3871</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="2">
-        <v>44713.41666666666</v>
+        <v>44693.60416666666</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
-      </c>
-      <c r="E145" t="s">
-        <v>231</v>
-      </c>
-      <c r="F145">
-        <v>54.4</v>
-      </c>
-      <c r="G145">
-        <v>54.6</v>
-      </c>
-      <c r="H145">
-        <v>54.4</v>
-      </c>
-      <c r="I145">
-        <v>54.6</v>
+        <v>180</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44688</v>
+      </c>
+      <c r="F145" t="s">
+        <v>288</v>
+      </c>
+      <c r="G145" t="s">
+        <v>335</v>
+      </c>
+      <c r="H145" t="s">
+        <v>269</v>
+      </c>
+      <c r="I145" t="s">
+        <v>330</v>
       </c>
       <c r="J145">
-        <v>90</v>
+        <v>98.3871</v>
       </c>
       <c r="K145" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="2">
-        <v>44713.66666666666</v>
+        <v>44698.45833333334</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
         <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E146" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F146">
-        <v>54.5</v>
+        <v>0.002</v>
       </c>
       <c r="G146">
-        <v>56.1</v>
+        <v>0.003</v>
       </c>
       <c r="H146">
-        <v>55.4</v>
-      </c>
-      <c r="I146" t="s">
-        <v>288</v>
+        <v>0.002</v>
+      </c>
+      <c r="I146">
+        <v>0.006</v>
       </c>
       <c r="J146">
-        <v>95.1613</v>
+        <v>92.3077</v>
       </c>
       <c r="K146" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="2">
-        <v>44714.60416666666</v>
+        <v>44699.45833333334</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
         <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>172</v>
-      </c>
-      <c r="E147" s="2">
-        <v>44709</v>
-      </c>
-      <c r="F147" t="s">
-        <v>273</v>
-      </c>
-      <c r="G147" t="s">
-        <v>260</v>
-      </c>
-      <c r="H147" t="s">
-        <v>273</v>
+        <v>184</v>
+      </c>
+      <c r="E147" t="s">
+        <v>235</v>
+      </c>
+      <c r="F147">
+        <v>0.075</v>
+      </c>
+      <c r="G147">
+        <v>0.074</v>
+      </c>
+      <c r="H147">
+        <v>0.074</v>
       </c>
       <c r="I147" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="J147">
-        <v>98.3871</v>
+        <v>94.87179999999999</v>
       </c>
       <c r="K147" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="2">
-        <v>44715.60416666666</v>
+        <v>44700.60416666666</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
@@ -6674,33 +6704,33 @@
         <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>174</v>
-      </c>
-      <c r="E148" t="s">
-        <v>232</v>
+        <v>180</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44695</v>
       </c>
       <c r="F148" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G148" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="H148" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="I148" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="J148">
-        <v>99.1935</v>
+        <v>98.3871</v>
       </c>
       <c r="K148" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="2">
-        <v>44720.45833333334</v>
+        <v>44705.41666666666</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -6712,30 +6742,30 @@
         <v>179</v>
       </c>
       <c r="E149" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F149">
-        <v>0.003</v>
-      </c>
-      <c r="G149">
-        <v>0.006</v>
+        <v>54.7</v>
+      </c>
+      <c r="G149" t="s">
+        <v>297</v>
       </c>
       <c r="H149">
-        <v>0.003</v>
+        <v>55.5</v>
       </c>
       <c r="I149" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J149">
-        <v>92.3077</v>
+        <v>90</v>
       </c>
       <c r="K149" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="2">
-        <v>44721.60416666666</v>
+        <v>44707.60416666666</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -6744,33 +6774,33 @@
         <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E150" s="2">
-        <v>44716</v>
+        <v>44702</v>
       </c>
       <c r="F150" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G150" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H150" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="I150" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="J150">
         <v>98.3871</v>
       </c>
       <c r="K150" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="2">
-        <v>44722.60416666666</v>
+        <v>44707.60416666666</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
@@ -6779,68 +6809,68 @@
         <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E151" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F151">
-        <v>0.007</v>
+        <v>-0.013</v>
       </c>
       <c r="G151">
-        <v>0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="H151">
-        <v>0.003</v>
+        <v>-0.014</v>
       </c>
       <c r="I151" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J151">
-        <v>96.77419999999999</v>
+        <v>95.96769999999999</v>
       </c>
       <c r="K151" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="2">
-        <v>44727.83333333334</v>
+        <v>44713.41666666666</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
         <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>177</v>
-      </c>
-      <c r="E152" s="2">
-        <v>44727</v>
+        <v>179</v>
+      </c>
+      <c r="E152" t="s">
+        <v>240</v>
       </c>
       <c r="F152">
-        <v>0.015</v>
+        <v>54.4</v>
       </c>
       <c r="G152">
-        <v>0.0175</v>
+        <v>54.6</v>
       </c>
       <c r="H152">
-        <v>0.01</v>
-      </c>
-      <c r="I152" t="s">
-        <v>288</v>
+        <v>54.4</v>
+      </c>
+      <c r="I152">
+        <v>54.6</v>
       </c>
       <c r="J152">
-        <v>97.5806</v>
+        <v>90</v>
       </c>
       <c r="K152" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="2">
-        <v>44728.60416666666</v>
+        <v>44713.66666666666</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -6849,173 +6879,173 @@
         <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>172</v>
-      </c>
-      <c r="E153" s="2">
-        <v>44723</v>
-      </c>
-      <c r="F153" t="s">
-        <v>272</v>
-      </c>
-      <c r="G153" t="s">
-        <v>283</v>
-      </c>
-      <c r="H153" t="s">
-        <v>283</v>
+        <v>181</v>
+      </c>
+      <c r="E153" t="s">
+        <v>241</v>
+      </c>
+      <c r="F153">
+        <v>54.5</v>
+      </c>
+      <c r="G153">
+        <v>56.1</v>
+      </c>
+      <c r="H153">
+        <v>55.4</v>
       </c>
       <c r="I153" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="J153">
-        <v>98.3871</v>
+        <v>95.1613</v>
       </c>
       <c r="K153" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="2">
-        <v>44729.45833333334</v>
+        <v>44714.60416666666</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>176</v>
-      </c>
-      <c r="E154" t="s">
-        <v>231</v>
-      </c>
-      <c r="F154">
-        <v>0.081</v>
-      </c>
-      <c r="G154">
-        <v>0.081</v>
-      </c>
-      <c r="H154">
-        <v>0.074</v>
+        <v>180</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44709</v>
+      </c>
+      <c r="F154" t="s">
+        <v>282</v>
+      </c>
+      <c r="G154" t="s">
+        <v>269</v>
+      </c>
+      <c r="H154" t="s">
+        <v>282</v>
       </c>
       <c r="I154" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="J154">
-        <v>94.87179999999999</v>
+        <v>98.3871</v>
       </c>
       <c r="K154" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="2">
-        <v>44735.41666666666</v>
+        <v>44715.60416666666</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E155" t="s">
-        <v>234</v>
-      </c>
-      <c r="F155">
-        <v>53.8</v>
-      </c>
-      <c r="G155">
-        <v>52</v>
-      </c>
-      <c r="H155">
-        <v>54.6</v>
+        <v>241</v>
+      </c>
+      <c r="F155" t="s">
+        <v>290</v>
+      </c>
+      <c r="G155" t="s">
+        <v>336</v>
+      </c>
+      <c r="H155" t="s">
+        <v>334</v>
       </c>
       <c r="I155" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="J155">
-        <v>90</v>
+        <v>99.1935</v>
       </c>
       <c r="K155" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="2">
-        <v>44735.60416666666</v>
+        <v>44720.45833333334</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
         <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>172</v>
-      </c>
-      <c r="E156" s="2">
-        <v>44730</v>
-      </c>
-      <c r="F156" t="s">
-        <v>282</v>
-      </c>
-      <c r="G156" t="s">
-        <v>283</v>
-      </c>
-      <c r="H156" t="s">
-        <v>283</v>
+        <v>188</v>
+      </c>
+      <c r="E156" t="s">
+        <v>242</v>
+      </c>
+      <c r="F156">
+        <v>0.003</v>
+      </c>
+      <c r="G156">
+        <v>0.006</v>
+      </c>
+      <c r="H156">
+        <v>0.003</v>
       </c>
       <c r="I156" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="J156">
-        <v>98.3871</v>
+        <v>92.3077</v>
       </c>
       <c r="K156" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="2">
-        <v>44741.60416666666</v>
+        <v>44721.57291666666</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>178</v>
-      </c>
-      <c r="E157" t="s">
-        <v>235</v>
+        <v>185</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44721</v>
       </c>
       <c r="F157">
-        <v>-0.015</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>-0.016</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>-0.015</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J157">
-        <v>95.96769999999999</v>
+        <v>97.4359</v>
       </c>
       <c r="K157" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="2">
-        <v>44742.60416666666</v>
+        <v>44721.60416666666</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -7024,68 +7054,68 @@
         <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E158" s="2">
-        <v>44737</v>
+        <v>44716</v>
       </c>
       <c r="F158" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G158" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H158" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="I158" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="J158">
         <v>98.3871</v>
       </c>
       <c r="K158" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="2">
-        <v>44743.41666666666</v>
+        <v>44722.60416666666</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E159" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="F159">
-        <v>52</v>
-      </c>
-      <c r="G159" t="s">
-        <v>288</v>
+        <v>0.007</v>
+      </c>
+      <c r="G159">
+        <v>0.01</v>
       </c>
       <c r="H159">
-        <v>52</v>
+        <v>0.003</v>
       </c>
       <c r="I159" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J159">
-        <v>90</v>
+        <v>96.77419999999999</v>
       </c>
       <c r="K159" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="2">
-        <v>44743.66666666666</v>
+        <v>44727.83333333334</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
@@ -7094,28 +7124,308 @@
         <v>170</v>
       </c>
       <c r="D160" t="s">
+        <v>186</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44727</v>
+      </c>
+      <c r="F160">
+        <v>0.015</v>
+      </c>
+      <c r="G160">
+        <v>0.0175</v>
+      </c>
+      <c r="H160">
+        <v>0.01</v>
+      </c>
+      <c r="I160" t="s">
+        <v>297</v>
+      </c>
+      <c r="J160">
+        <v>97.5806</v>
+      </c>
+      <c r="K160" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="2">
+        <v>44728.60416666666</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161" t="s">
+        <v>180</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44723</v>
+      </c>
+      <c r="F161" t="s">
+        <v>281</v>
+      </c>
+      <c r="G161" t="s">
+        <v>292</v>
+      </c>
+      <c r="H161" t="s">
+        <v>292</v>
+      </c>
+      <c r="I161" t="s">
+        <v>325</v>
+      </c>
+      <c r="J161">
+        <v>98.3871</v>
+      </c>
+      <c r="K161" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="2">
+        <v>44729.45833333334</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D162" t="s">
+        <v>184</v>
+      </c>
+      <c r="E162" t="s">
+        <v>240</v>
+      </c>
+      <c r="F162">
+        <v>0.081</v>
+      </c>
+      <c r="G162">
+        <v>0.081</v>
+      </c>
+      <c r="H162">
+        <v>0.074</v>
+      </c>
+      <c r="I162" t="s">
+        <v>297</v>
+      </c>
+      <c r="J162">
+        <v>94.87179999999999</v>
+      </c>
+      <c r="K162" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="2">
+        <v>44735.41666666666</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
         <v>173</v>
       </c>
-      <c r="E160" t="s">
+      <c r="D163" t="s">
+        <v>179</v>
+      </c>
+      <c r="E163" t="s">
+        <v>243</v>
+      </c>
+      <c r="F163">
+        <v>53.8</v>
+      </c>
+      <c r="G163">
+        <v>52</v>
+      </c>
+      <c r="H163">
+        <v>54.6</v>
+      </c>
+      <c r="I163" t="s">
+        <v>297</v>
+      </c>
+      <c r="J163">
+        <v>90</v>
+      </c>
+      <c r="K163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="2">
+        <v>44735.60416666666</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>174</v>
+      </c>
+      <c r="D164" t="s">
+        <v>180</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44730</v>
+      </c>
+      <c r="F164" t="s">
+        <v>291</v>
+      </c>
+      <c r="G164" t="s">
+        <v>292</v>
+      </c>
+      <c r="H164" t="s">
+        <v>292</v>
+      </c>
+      <c r="I164" t="s">
+        <v>378</v>
+      </c>
+      <c r="J164">
+        <v>98.3871</v>
+      </c>
+      <c r="K164" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="2">
+        <v>44741.60416666666</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165" t="s">
+        <v>187</v>
+      </c>
+      <c r="E165" t="s">
+        <v>244</v>
+      </c>
+      <c r="F165">
+        <v>-0.015</v>
+      </c>
+      <c r="G165">
+        <v>-0.016</v>
+      </c>
+      <c r="H165">
+        <v>-0.015</v>
+      </c>
+      <c r="I165" t="s">
+        <v>297</v>
+      </c>
+      <c r="J165">
+        <v>95.96769999999999</v>
+      </c>
+      <c r="K165" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="2">
+        <v>44742.60416666666</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166" t="s">
+        <v>180</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44737</v>
+      </c>
+      <c r="F166" t="s">
+        <v>292</v>
+      </c>
+      <c r="G166" t="s">
+        <v>297</v>
+      </c>
+      <c r="H166" t="s">
+        <v>292</v>
+      </c>
+      <c r="I166" t="s">
+        <v>297</v>
+      </c>
+      <c r="J166">
+        <v>98.3871</v>
+      </c>
+      <c r="K166" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="2">
+        <v>44743.41666666666</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167" t="s">
+        <v>179</v>
+      </c>
+      <c r="E167" t="s">
+        <v>189</v>
+      </c>
+      <c r="F167">
+        <v>52</v>
+      </c>
+      <c r="G167" t="s">
+        <v>297</v>
+      </c>
+      <c r="H167">
+        <v>52</v>
+      </c>
+      <c r="I167" t="s">
+        <v>297</v>
+      </c>
+      <c r="J167">
+        <v>90</v>
+      </c>
+      <c r="K167" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="2">
+        <v>44743.66666666666</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" t="s">
         <v>181</v>
       </c>
-      <c r="F160">
+      <c r="E168" t="s">
+        <v>190</v>
+      </c>
+      <c r="F168">
         <v>54.5</v>
       </c>
-      <c r="G160" t="s">
-        <v>288</v>
-      </c>
-      <c r="H160">
+      <c r="G168" t="s">
+        <v>297</v>
+      </c>
+      <c r="H168">
         <v>56.1</v>
       </c>
-      <c r="I160" t="s">
-        <v>288</v>
-      </c>
-      <c r="J160">
+      <c r="I168" t="s">
+        <v>297</v>
+      </c>
+      <c r="J168">
         <v>95.1613</v>
       </c>
-      <c r="K160" t="s">
-        <v>372</v>
+      <c r="K168" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
